--- a/Organisatorisch/Konzepte.xlsx
+++ b/Organisatorisch/Konzepte.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kater\PycharmProjects\Bachelorarbeit_v2_fromGIT\Organisatorisch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateryna_hamii/Bachelorarbeit_v2_fromGit/Organisatorisch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2523A56-253F-4F2E-A97B-3554C1310A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49917652-DE2F-5A42-BC92-BC5DAC5D06D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="615" windowWidth="22590" windowHeight="13740" xr2:uid="{77604E74-32CD-4057-AB40-0BC08FC0D6A8}"/>
+    <workbookView xWindow="15680" yWindow="500" windowWidth="17780" windowHeight="19760" activeTab="1" xr2:uid="{77604E74-32CD-4057-AB40-0BC08FC0D6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$453</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$B$1:$B$332</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="759">
   <si>
     <t>Erdbeben</t>
   </si>
@@ -1017,13 +1019,1333 @@
   </si>
   <si>
     <t>Sonnencreme mit hohem Lichtschutzfaktor</t>
+  </si>
+  <si>
+    <t>Konzepte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seismische Aktivität </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epizentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypozentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdkruste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreizungszone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subduktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformverwerfung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sttausee-Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wnchuan-Erdbeben China 2008 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenfolgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebenschäden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebenopfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verletzte in Syrien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vermisste im Erdbebengebiet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenforschung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seismologie </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seismograph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebenwellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenstärke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensität </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebengefährdung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risiko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebengebiet </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbeben in Türkein </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbeben in Syrien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbeben im Indischen Ozean 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seebeben vor Java Juli 2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-Satellitensystem Copernicus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbeben-Monitoring-Dienst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlotverschließung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vulkanphänomene </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> von Volkan ausgelöste Ereignisse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyroklastische Ströme (Glühlawine) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gletscher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tsunami </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vulkantyp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schichtvulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schildvulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">komplexer Vulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlackenkegel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaltenvulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kraterreihe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">submariner Vulkan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulkanfeld </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vorhersage von Vulkanausbrüchen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufzeichnung seismischer Aktivität (vulkanischer Tremor) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geodätische Überwachun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messung gravimetrischer und magnetometrischer Veränderungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfassung von Temperaturerhöhungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betroffene Gebiete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesien überzogen von Vulkanen (Hauptinsel Java) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulkanausbruch auf La Palma </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abfolge besonders langer Wasserwellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tsunamiursachen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unterseeischen Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hineinrutschen großer Erd- und Gesteinsmassen ins Wasser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">künstlich hervorgerufenen Explosionen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einschlag eines Himmelskörpers </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tsunamigefahrenzonen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbeben im Indischen Ozean 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seebeben vor Java Juli 2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tsunamischutz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühwarnsystem im Japan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysian National Tsunami Early Warning System (MNTEWS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteorologische </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurrikanfolgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturmflut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windbruch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Küstenerosion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdrutschen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturzfluten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überschwemmung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurrikaneigenschaften </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hohe Windgeschwindigkeit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurrikanzentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;&lt;-----Hagel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sturzregen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewitterfallböen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicht-mesozyklonale Tornados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tornadofolgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">umgestürzte Bäume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abgerissene Stromleitung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tornadoursachen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superzellen (mehrere Gewitterzellen( </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt;&gt;&gt; Starkregen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tornadoerkennung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotierende Luftmasse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">errinert an Trichter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujita-Skala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRO-Skala </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verursacht durch Hitze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Typologie von Dürreereignissen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meteorologische Dürre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrologische Dürre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">landwirtschaftliche Dürre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sozio-ökonomische Dürre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dürreperiode </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Palmer-Dürre-Index </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Folgen von Dürren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geringere Ernten hohe Preise für die geernteten Güter (extern) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engpässe in der Stromversorgung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> als Folge---&gt;&gt;Waldbrand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenerosion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schlimmste Dürre des Jahrtausends Deutschland1540 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waldbrandgefahr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waldbrand-Gefahrenstufe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waldbrand-statistik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waldbrand-beobachtungssystem Waldbrandüberwachungsflüge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waldbrand-jahr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waldbrandausrüstung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrologische </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinenauslöser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwachschicht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meschliche Aktivitäten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleitschneelawinen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lockerschneelawinen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schneedecke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">große Temperaturuntteschiede </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneekörner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vereiste Rutschfläche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneeprofil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sicherheitausrüstung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versicherungsschutz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenairbags </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenschaufel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinensonde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenverschüttetensuchgerät (LVS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinen-Rucksack </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Klima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimawandel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erderwärmung_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinendienst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettungskräfte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mit Hubraubern &amp; Hunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lavinenopfer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verschüttete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todesopfer nach Lawinenunglück </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfrorene </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinengefahr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenrisiko </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sicherheit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neigungswinkel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gradien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinenagbang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinengefahrenstufen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenwarnung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lawinenrisikomanagment </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schnee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niederschlag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimabedingte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitzewellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitzeperiode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitzebelastung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herausforderung während Hitzewellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niedrigwasser </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitzeschutzplan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinkwasserbrunnen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulierte Arbeitszeiten und -bedingungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitzefrei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seniorenbesuche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kühlsäle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tierschutz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonnencreme mit hohem Lichtschutzfaktor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimaanlage installieren </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maßnahmen für Begrünung uns Schattierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mehr Bäume pflanzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hagelschutznetze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitzeerkrankungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreislaufbeschwerden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magen-Darm-Infektionen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonnenstich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitzekollaps-/schlag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitzekrämpfe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fehlende Thermoregulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wärmebelastung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlafprobleme </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natur- und Landwirtschaft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundwasserspiegel sinkt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremer Schneefall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswirkung auf Erntejahr </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erschwete Bekämpfung des Borkenkäfers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ausgetroknete Flussläufe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaualgenplagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gestresste Bäume und Pflanzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ausgetrockneter Boden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahr von Waldbränden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hochwasser Überschwemmung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starkniederschläge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insektenplagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schädlingsplagen (Heuschreckeneinfall) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Epidemien </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beweltigung von Katastrophen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophenvorsorge und -planung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wetterdienstberichte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SMS-Warnsystem </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deiche für Küstenstädte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenfrühwarnung </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luftrettungsstaffel Deutscher Flugbeobachtungsdienst Luftrettungsstaffel Bayern </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intakte Wälder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natürliche Auen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evakuierungstrffpunkt finden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evakuierungsplan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rettungsarbeiten </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trainingsprogramme für Bevölkerung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettung und Soforthilfe </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hilfsteransport </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deutsche GeoForschungsZentrum </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RKT (Regensburger Krankentransport) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Retungsorganisation Weißhelme </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Türkischer Roter Halbmond (Hilfsorganisation) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> schnelle Visavergabe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flüchtlichgsorganisationen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Versorgung von Überlebenden und Verletzten </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notunterkünfte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sach- und Geldspende </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hilfsgüter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langfristige Maßnahmen und Wiederaufbau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gebäudeversicherung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordination und Organisation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwarmlawine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiefherdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebäudezerstörung durch Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastrukturschäden durch Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">witschaftliche Schäden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anzahl Erdbebenbetroffenen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-Wellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercalliskala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSK-Skala (EMS-Skala) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richterskala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moment-Magnituden-Skala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulkanausbruch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">strombolianischen Eruption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plinianischen Eruption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eruptionssäule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vulkanische Bomben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurrikan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WirbelsturmZyklonim Indischen Ozean und Südpazifik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mesozyklonale TornadoMeso-Zyklon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auf- und Abwinde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürre (Trockenheit ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldbrand (Flurbrand Vegetationsbrand) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneebrett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneeschuhwanderer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneekristalle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haftversicherungspflicht </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luftkissen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenrettungsgruppe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">am freien Gelände am höchstten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hangneigung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechnung von Lawinenwarnzonen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawinenwarnstufe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremwetterereignisse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalmangel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasserknappheit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maßnahmen gegen Hitze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eis für Vierbeiner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommergrippe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gegen Sonnebrand für Bäume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitze- &amp; Trokcenheitfolgen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswirkung auf Forstwirtschaft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StarkregenfallStarkgewitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sturm (Orkan) Hagelsturm SchneesturmSandsturm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biologische </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühwarnsystem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evakuierung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risikobewertung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notfallplan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophenschutzübung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophenmanagement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundesamt für Bevölkerungsschutz und Katastrophenhilfe (BBK) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rettungseinsatz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notfallvorsorge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opferhilfe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothilfe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schadensbegrenzung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilfsmaßnahmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiederaufbau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophenschaden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krisenreaktion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katastrophenschutz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krisenmanagement </t>
+  </si>
+  <si>
+    <t>Synonyme</t>
+  </si>
+  <si>
+    <t>Wortformen</t>
+  </si>
+  <si>
+    <t>ElternIDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naturkatastrophe </t>
+  </si>
+  <si>
+    <t>Naturkatastrophen, Naturkatastrophe</t>
+  </si>
+  <si>
+    <t>Ausnahmezustand</t>
+  </si>
+  <si>
+    <t>ungewöhnliche Naturereignisse, Kataklysmus</t>
+  </si>
+  <si>
+    <t>Bergrutsch</t>
+  </si>
+  <si>
+    <t>Erdstoß</t>
+  </si>
+  <si>
+    <t>Extraterrestrische Ursachen</t>
+  </si>
+  <si>
+    <t>Meteoriteneinschläge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerölllawine </t>
+  </si>
+  <si>
+    <t>Großes Alaska-Beben</t>
+  </si>
+  <si>
+    <t>Karfreitagsbeben 1964</t>
+  </si>
+  <si>
+    <t>Seebeben</t>
+  </si>
+  <si>
+    <t>unterseeisches Erdbeben</t>
+  </si>
+  <si>
+    <t>Erdbebebnschwam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwarmbeben </t>
+  </si>
+  <si>
+    <t>Erschütterung</t>
+  </si>
+  <si>
+    <t>Mure</t>
+  </si>
+  <si>
+    <t>Erdbebenzentrum</t>
+  </si>
+  <si>
+    <t>Erdbebenursache</t>
+  </si>
+  <si>
+    <t>Erdbebenursachen</t>
+  </si>
+  <si>
+    <t> Erdrinde</t>
+  </si>
+  <si>
+    <t>Erdbebenschaden</t>
+  </si>
+  <si>
+    <t>Erdbebenbetroffene</t>
+  </si>
+  <si>
+    <t>Verstorbene, Leiche</t>
+  </si>
+  <si>
+    <t>Verwundete</t>
+  </si>
+  <si>
+    <t>Seismometer</t>
+  </si>
+  <si>
+    <t>Erdbebenwelle</t>
+  </si>
+  <si>
+    <t>Oberflächenwelle</t>
+  </si>
+  <si>
+    <t>Stärke, Größe, Tiefe</t>
+  </si>
+  <si>
+    <t>Gefahr</t>
+  </si>
+  <si>
+    <t>Eruption , Vulkanaktivität</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krater  </t>
+  </si>
+  <si>
+    <t>Caldera, Erdabsturz, Erdfalltrichter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magma </t>
+  </si>
+  <si>
+    <t>Lavafluss ,Lavastrom, Lava</t>
+  </si>
+  <si>
+    <t>Schlamm- und Schuttströme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lahar </t>
+  </si>
+  <si>
+    <t>Sturzflut</t>
+  </si>
+  <si>
+    <t>Flut, Hochwasser, Überflutung,</t>
+  </si>
+  <si>
+    <t>Tornado(</t>
+  </si>
+  <si>
+    <t>Wind-/Wasserhose, Großtrombe</t>
+  </si>
+  <si>
+    <t>Schneekristall</t>
+  </si>
+  <si>
+    <t>Rettungskraft</t>
+  </si>
+  <si>
+    <t>Unwetter</t>
+  </si>
+  <si>
+    <t>Extremwetterereignis</t>
+  </si>
+  <si>
+    <t>Hitzewelle</t>
+  </si>
+  <si>
+    <t>Schlaflosigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dürre, Trokenheit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orkane </t>
+  </si>
+  <si>
+    <t>Orkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flut  </t>
+  </si>
+  <si>
+    <t>Flutwelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starkregen  </t>
+  </si>
+  <si>
+    <t>Dauerregen</t>
+  </si>
+  <si>
+    <t>Endogene, tektonische</t>
+  </si>
+  <si>
+    <t>geologisch, geologischer, geologische, geologisches</t>
+  </si>
+  <si>
+    <t>Erdbebens</t>
+  </si>
+  <si>
+    <t>Erderschütterung,Erdstöße</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenphänomen</t>
+  </si>
+  <si>
+    <t>Geologisch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klassifizierung, Typen </t>
+  </si>
+  <si>
+    <t>Erderschütterungsphänomen</t>
+  </si>
+  <si>
+    <t>Schwarmlawinen</t>
+  </si>
+  <si>
+    <t>Murgangs, Murgänge, Murgängen</t>
+  </si>
+  <si>
+    <t>Erdbebenaktivität</t>
+  </si>
+  <si>
+    <t>Seismische Aktivitäten, Seismischer, Seismisches, Seismischen</t>
+  </si>
+  <si>
+    <t>Nachbebens, nachbebenartig,nachbebenhaft, nachbebenbedingt, nachbebengefährdet</t>
+  </si>
+  <si>
+    <t>Epizentrums, Epizentren, epizentrisch, epizentral</t>
+  </si>
+  <si>
+    <t>Primärbeben</t>
+  </si>
+  <si>
+    <t>Hauptbebens, hauptbebenartig, hauptbebengefährdet, hauptbebenbedingt</t>
+  </si>
+  <si>
+    <t>Eisklumpen · Eiskörner</t>
+  </si>
+  <si>
+    <t>Klimawechsel ,Global Warming</t>
+  </si>
+  <si>
+    <t> Bebenherd, Erdbebenfokus</t>
+  </si>
+  <si>
+    <t>Hypozentrums, hypozentrisch</t>
+  </si>
+  <si>
+    <t>Vorbebens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdkrusten </t>
+  </si>
+  <si>
+    <t>Tiefherdbebens</t>
+  </si>
+  <si>
+    <t>platektonischer Prozess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murgang </t>
+  </si>
+  <si>
+    <t>platektonisches Prozesses, platektonische Prozesse</t>
+  </si>
+  <si>
+    <t>Kontinentaldrift, Kontinentalverschiebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontinentalplattendrift </t>
+  </si>
+  <si>
+    <t>Kontinentalplattendrifts, Plattentektonik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreizungszonen </t>
+  </si>
+  <si>
+    <t>Subduktionen</t>
+  </si>
+  <si>
+    <t>Transformverwerfungen</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Verwerfung (Geologie)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sprung</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verschiebung</t>
+    </r>
+  </si>
+  <si>
+    <t>verwerfen (Gesteinsschichten), Verwerfungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthropogenes Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anthropogene, anthropogenem Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenfolge</t>
+  </si>
+  <si>
+    <t>Sachschaden</t>
+  </si>
+  <si>
+    <t>Gebäudezerstörungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrastrukturschaden durch Erdbeben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">witschaftliche Schaden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebensuche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachschaden durch Erdbeben </t>
+  </si>
+  <si>
+    <t>Erdbebenopfern,Erdbebenopfers, Erdbebenopfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdbebensuchen </t>
+  </si>
+  <si>
+    <t>Erdbebenbetroffene, Erdbebenbetroffenen, Erdbebenbetroffener, Erdbebenbetroffenes, Erdbebenbetroffenem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebentote </t>
+  </si>
+  <si>
+    <t>Erdbebentotes,  Erdbebentoten,  Erdbebentotem, Erdbebentoter</t>
+  </si>
+  <si>
+    <t>Vermisster, Vermisstes, Vermissten, Vermisstem</t>
+  </si>
+  <si>
+    <t>Verletzter,Verletztem, Verletzten, Verletztes</t>
+  </si>
+  <si>
+    <t>Erdbebenforschungen, forschen</t>
+  </si>
+  <si>
+    <t>Messungen,</t>
+  </si>
+  <si>
+    <t>Seismograf, Seismografen </t>
+  </si>
+  <si>
+    <t>P-Welle</t>
+  </si>
+  <si>
+    <t>S-Welle</t>
+  </si>
+  <si>
+    <t>Intensitäten</t>
+  </si>
+  <si>
+    <t>Mercalliskalas, Mercalliskalen</t>
+  </si>
+  <si>
+    <t>Magnituden</t>
+  </si>
+  <si>
+    <t>Richterskalas, Richterskalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moment-Magnituden-Skalas </t>
+  </si>
+  <si>
+    <t>Erdbebengefährdungen</t>
+  </si>
+  <si>
+    <t>Risikos, Risiken</t>
+  </si>
+  <si>
+    <t>ErdbebengebietenErdbebengebiets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risikozone </t>
+  </si>
+  <si>
+    <t>Risikozonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdbebenschutzmaßnahme</t>
+  </si>
+  <si>
+    <t>Satellitensystems, Satellitensystemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bauen erdbebensicheres Gebäude </t>
+  </si>
+  <si>
+    <t>erdbebensichere Gebäude, erdbebensicheren Gebäude, erdbebensicherem Gebäude, erdbebensicheres Gebäudes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauvorschrift für erdbebensicheres/erdbebenreches Bauen </t>
+  </si>
+  <si>
+    <t>Bauvorschrifte für erdbebensicheres/erdbebenreches Bauen</t>
+  </si>
+  <si>
+    <t>Erdbeben-Monitoring-Dienste, Erdbeben-Monitoring-Dienstes</t>
+  </si>
+  <si>
+    <t>Vulkanausbrüche, Vulkanausbruches, Vulkanausbruchs, Vulkanausbrüchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beruhigung der Lage: Prognose </t>
+  </si>
+  <si>
+    <t>Entleerung des Magma-Kraters</t>
+  </si>
+  <si>
+    <t>Schlotverschließungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vulkanphänomen</t>
+  </si>
+  <si>
+    <t>Kratern, Kraters</t>
+  </si>
+  <si>
+    <t>Magmen</t>
+  </si>
+  <si>
+    <t>Art von Naturkatastrophe</t>
+  </si>
+  <si>
+    <t>Abholzung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,13 +2360,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF4C545B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF4C545B"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1056,17 +2453,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,7 +2492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1380,16 +2790,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC7362D-1687-47CD-8E18-0DFCED1D1884}">
   <dimension ref="A1:B332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+    <sheetView topLeftCell="A195" workbookViewId="0">
       <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="81.42578125" customWidth="1"/>
+    <col min="2" max="2" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" t="s">
         <v>313</v>
       </c>
@@ -1397,7 +2807,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1405,7 +2815,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1413,7 +2823,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1421,7 +2831,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1429,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1437,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1445,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1453,7 +2863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1461,7 +2871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1469,7 +2879,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1477,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1485,7 +2895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1493,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1501,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1509,7 +2919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1517,7 +2927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1525,7 +2935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1533,7 +2943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1541,7 +2951,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1549,7 +2959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1557,7 +2967,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1565,7 +2975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1573,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1581,7 +2991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1589,7 +2999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1597,7 +3007,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1605,7 +3015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1613,7 +3023,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1621,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1629,7 +3039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1637,7 +3047,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1645,7 +3055,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1653,7 +3063,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1661,7 +3071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1669,7 +3079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1677,7 +3087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1685,7 +3095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1693,7 +3103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1701,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1709,7 +3119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1717,7 +3127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1725,7 +3135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1733,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1741,7 +3151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1749,7 +3159,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1757,7 +3167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1765,7 +3175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1773,7 +3183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1781,7 +3191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1789,7 +3199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1797,7 +3207,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1805,7 +3215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1813,7 +3223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1821,7 +3231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1829,7 +3239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1837,7 +3247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1845,7 +3255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1853,7 +3263,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1861,7 +3271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1869,7 +3279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1877,7 +3287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1885,7 +3295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1893,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1901,7 +3311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1909,7 +3319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1917,7 +3327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1925,7 +3335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1933,7 +3343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1941,7 +3351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1949,7 +3359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1957,7 +3367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1965,7 +3375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1973,7 +3383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1981,7 +3391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1989,7 +3399,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1997,7 +3407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2005,7 +3415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2013,7 +3423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2021,7 +3431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2029,7 +3439,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2037,7 +3447,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2045,7 +3455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2053,7 +3463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2061,7 +3471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2069,7 +3479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2077,7 +3487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2085,7 +3495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2093,7 +3503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2101,7 +3511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2109,7 +3519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2117,7 +3527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2125,7 +3535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2133,7 +3543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2141,7 +3551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2149,7 +3559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2157,7 +3567,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2165,7 +3575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2173,7 +3583,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2181,7 +3591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2189,7 +3599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2197,7 +3607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2205,7 +3615,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="16">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2213,7 +3623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="16">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2221,7 +3631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2229,7 +3639,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2237,7 +3647,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2245,7 +3655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2253,7 +3663,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2261,7 +3671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2269,7 +3679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2277,7 +3687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2285,7 +3695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2293,7 +3703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2301,7 +3711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2309,7 +3719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2317,7 +3727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2325,7 +3735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2333,7 +3743,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2341,7 +3751,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2349,7 +3759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2357,7 +3767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2365,7 +3775,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2373,7 +3783,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2381,7 +3791,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2389,7 +3799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2397,7 +3807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2405,7 +3815,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2413,7 +3823,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2421,7 +3831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="16">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2429,7 +3839,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2437,7 +3847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="16">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2445,7 +3855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="16">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2453,7 +3863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2461,7 +3871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="16">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2469,7 +3879,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2477,7 +3887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="16">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2485,7 +3895,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2493,7 +3903,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2501,7 +3911,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="16">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2509,7 +3919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="16">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2517,7 +3927,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2525,7 +3935,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2533,7 +3943,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2541,7 +3951,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="16">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2549,7 +3959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2557,7 +3967,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2565,7 +3975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2573,7 +3983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2581,7 +3991,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2589,7 +3999,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="16">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2597,7 +4007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2605,7 +4015,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2613,7 +4023,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16">
       <c r="A154">
         <v>152</v>
       </c>
@@ -2621,7 +4031,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16">
       <c r="A155">
         <v>153</v>
       </c>
@@ -2629,7 +4039,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16">
       <c r="A156">
         <v>154</v>
       </c>
@@ -2637,7 +4047,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16">
       <c r="A157">
         <v>155</v>
       </c>
@@ -2645,7 +4055,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16">
       <c r="A158">
         <v>156</v>
       </c>
@@ -2653,7 +4063,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16">
       <c r="A159">
         <v>157</v>
       </c>
@@ -2661,7 +4071,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="16">
       <c r="A160">
         <v>158</v>
       </c>
@@ -2669,7 +4079,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16">
       <c r="A161">
         <v>159</v>
       </c>
@@ -2677,7 +4087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16">
       <c r="A162">
         <v>160</v>
       </c>
@@ -2685,7 +4095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16">
       <c r="A163">
         <v>161</v>
       </c>
@@ -2693,7 +4103,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16">
       <c r="A164">
         <v>162</v>
       </c>
@@ -2701,7 +4111,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16">
       <c r="A165">
         <v>163</v>
       </c>
@@ -2709,7 +4119,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16">
       <c r="A166">
         <v>164</v>
       </c>
@@ -2717,7 +4127,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16">
       <c r="A167">
         <v>165</v>
       </c>
@@ -2725,7 +4135,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="16">
       <c r="A168">
         <v>166</v>
       </c>
@@ -2733,7 +4143,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="16">
       <c r="A169">
         <v>167</v>
       </c>
@@ -2741,7 +4151,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16">
       <c r="A170">
         <v>168</v>
       </c>
@@ -2749,7 +4159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16">
       <c r="A171">
         <v>169</v>
       </c>
@@ -2757,7 +4167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16">
       <c r="A172">
         <v>170</v>
       </c>
@@ -2765,7 +4175,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16">
       <c r="A173">
         <v>171</v>
       </c>
@@ -2773,7 +4183,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16">
       <c r="A174">
         <v>172</v>
       </c>
@@ -2781,7 +4191,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16">
       <c r="A175">
         <v>173</v>
       </c>
@@ -2789,7 +4199,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16">
       <c r="A176">
         <v>174</v>
       </c>
@@ -2797,7 +4207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16">
       <c r="A177">
         <v>175</v>
       </c>
@@ -2805,7 +4215,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="16">
       <c r="A178">
         <v>176</v>
       </c>
@@ -2813,7 +4223,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16">
       <c r="A179">
         <v>177</v>
       </c>
@@ -2821,7 +4231,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16">
       <c r="A180">
         <v>178</v>
       </c>
@@ -2829,7 +4239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16">
       <c r="A181">
         <v>179</v>
       </c>
@@ -2837,7 +4247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16">
       <c r="A182">
         <v>180</v>
       </c>
@@ -2845,7 +4255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="16">
       <c r="A183">
         <v>181</v>
       </c>
@@ -2853,7 +4263,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16">
       <c r="A184">
         <v>182</v>
       </c>
@@ -2861,7 +4271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16">
       <c r="A185">
         <v>183</v>
       </c>
@@ -2869,7 +4279,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16">
       <c r="A186">
         <v>184</v>
       </c>
@@ -2877,7 +4287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16">
       <c r="A187">
         <v>185</v>
       </c>
@@ -2885,7 +4295,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16">
       <c r="A188">
         <v>186</v>
       </c>
@@ -2893,7 +4303,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16">
       <c r="A189">
         <v>187</v>
       </c>
@@ -2901,7 +4311,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16">
       <c r="A190">
         <v>188</v>
       </c>
@@ -2909,7 +4319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16">
       <c r="A191">
         <v>189</v>
       </c>
@@ -2917,7 +4327,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16">
       <c r="A192">
         <v>190</v>
       </c>
@@ -2925,7 +4335,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="16">
       <c r="A193">
         <v>191</v>
       </c>
@@ -2933,7 +4343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16">
       <c r="A194">
         <v>192</v>
       </c>
@@ -2941,7 +4351,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16">
       <c r="A195">
         <v>193</v>
       </c>
@@ -2949,7 +4359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16">
       <c r="A196">
         <v>194</v>
       </c>
@@ -2957,7 +4367,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16">
       <c r="A197">
         <v>195</v>
       </c>
@@ -2965,7 +4375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16">
       <c r="A198">
         <v>196</v>
       </c>
@@ -2973,7 +4383,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16">
       <c r="A199">
         <v>197</v>
       </c>
@@ -2981,7 +4391,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16">
       <c r="A200">
         <v>198</v>
       </c>
@@ -2989,7 +4399,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16">
       <c r="A201">
         <v>199</v>
       </c>
@@ -2997,7 +4407,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="16">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3005,7 +4415,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16">
       <c r="A203">
         <v>201</v>
       </c>
@@ -3013,7 +4423,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="16">
       <c r="A204">
         <v>202</v>
       </c>
@@ -3021,7 +4431,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="16">
       <c r="A205">
         <v>203</v>
       </c>
@@ -3029,7 +4439,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16">
       <c r="A206">
         <v>204</v>
       </c>
@@ -3037,7 +4447,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="16">
       <c r="A207">
         <v>205</v>
       </c>
@@ -3045,7 +4455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16">
       <c r="A208">
         <v>206</v>
       </c>
@@ -3053,7 +4463,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16">
       <c r="A209">
         <v>207</v>
       </c>
@@ -3061,7 +4471,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="16">
       <c r="A210">
         <v>208</v>
       </c>
@@ -3069,7 +4479,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16">
       <c r="A211">
         <v>209</v>
       </c>
@@ -3077,7 +4487,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16">
       <c r="A212">
         <v>210</v>
       </c>
@@ -3085,7 +4495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16">
       <c r="A213">
         <v>211</v>
       </c>
@@ -3093,7 +4503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16">
       <c r="A214">
         <v>212</v>
       </c>
@@ -3101,7 +4511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16">
       <c r="A215">
         <v>213</v>
       </c>
@@ -3109,7 +4519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16">
       <c r="A216">
         <v>214</v>
       </c>
@@ -3117,7 +4527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="16">
       <c r="A217">
         <v>215</v>
       </c>
@@ -3125,7 +4535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="16">
       <c r="A218">
         <v>216</v>
       </c>
@@ -3133,7 +4543,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="16">
       <c r="A219">
         <v>217</v>
       </c>
@@ -3141,7 +4551,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="16">
       <c r="A220">
         <v>218</v>
       </c>
@@ -3149,7 +4559,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="16">
       <c r="A221">
         <v>219</v>
       </c>
@@ -3157,7 +4567,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16">
       <c r="A222">
         <v>220</v>
       </c>
@@ -3165,7 +4575,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="16">
       <c r="A223">
         <v>221</v>
       </c>
@@ -3173,7 +4583,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16">
       <c r="A224">
         <v>222</v>
       </c>
@@ -3181,7 +4591,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16">
       <c r="A225">
         <v>223</v>
       </c>
@@ -3189,7 +4599,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16">
       <c r="A226">
         <v>224</v>
       </c>
@@ -3197,7 +4607,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16">
       <c r="A227">
         <v>225</v>
       </c>
@@ -3205,7 +4615,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="16">
       <c r="A228">
         <v>226</v>
       </c>
@@ -3213,7 +4623,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="16">
       <c r="A229">
         <v>227</v>
       </c>
@@ -3221,7 +4631,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16">
       <c r="A230">
         <v>228</v>
       </c>
@@ -3229,7 +4639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="16">
       <c r="A231">
         <v>229</v>
       </c>
@@ -3237,7 +4647,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16">
       <c r="A232">
         <v>230</v>
       </c>
@@ -3245,7 +4655,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="16">
       <c r="A233">
         <v>231</v>
       </c>
@@ -3253,7 +4663,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16">
       <c r="A234">
         <v>232</v>
       </c>
@@ -3261,7 +4671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16">
       <c r="A235">
         <v>233</v>
       </c>
@@ -3269,7 +4679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16">
       <c r="A236">
         <v>234</v>
       </c>
@@ -3277,7 +4687,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="16">
       <c r="A237">
         <v>235</v>
       </c>
@@ -3285,7 +4695,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="16">
       <c r="A238">
         <v>236</v>
       </c>
@@ -3293,7 +4703,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16">
       <c r="A239">
         <v>237</v>
       </c>
@@ -3301,7 +4711,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="16">
       <c r="A240">
         <v>238</v>
       </c>
@@ -3309,7 +4719,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16">
       <c r="A241">
         <v>239</v>
       </c>
@@ -3317,7 +4727,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="16">
       <c r="A242">
         <v>240</v>
       </c>
@@ -3325,7 +4735,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16">
       <c r="A243">
         <v>241</v>
       </c>
@@ -3333,7 +4743,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="16">
       <c r="A244">
         <v>242</v>
       </c>
@@ -3341,7 +4751,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="16">
       <c r="A245">
         <v>243</v>
       </c>
@@ -3349,7 +4759,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="16">
       <c r="A246">
         <v>244</v>
       </c>
@@ -3357,7 +4767,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="16">
       <c r="A247">
         <v>245</v>
       </c>
@@ -3365,7 +4775,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16">
       <c r="A248">
         <v>246</v>
       </c>
@@ -3373,7 +4783,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16">
       <c r="A249">
         <v>247</v>
       </c>
@@ -3381,7 +4791,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="16">
       <c r="A250">
         <v>248</v>
       </c>
@@ -3389,7 +4799,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16">
       <c r="A251">
         <v>249</v>
       </c>
@@ -3397,7 +4807,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16">
       <c r="A252">
         <v>250</v>
       </c>
@@ -3405,7 +4815,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16">
       <c r="A253">
         <v>251</v>
       </c>
@@ -3413,7 +4823,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="16">
       <c r="A254">
         <v>252</v>
       </c>
@@ -3421,7 +4831,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="16">
       <c r="A255">
         <v>253</v>
       </c>
@@ -3429,7 +4839,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="16">
       <c r="A256">
         <v>254</v>
       </c>
@@ -3437,7 +4847,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="16">
       <c r="A257">
         <v>255</v>
       </c>
@@ -3445,7 +4855,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16">
       <c r="A258">
         <v>256</v>
       </c>
@@ -3453,7 +4863,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16">
       <c r="A259">
         <v>257</v>
       </c>
@@ -3461,7 +4871,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16">
       <c r="A260">
         <v>258</v>
       </c>
@@ -3469,7 +4879,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="16">
       <c r="A261">
         <v>259</v>
       </c>
@@ -3477,7 +4887,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="16">
       <c r="A262">
         <v>260</v>
       </c>
@@ -3485,7 +4895,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="16">
       <c r="A263">
         <v>261</v>
       </c>
@@ -3493,7 +4903,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="16">
       <c r="A264">
         <v>262</v>
       </c>
@@ -3501,7 +4911,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="16">
       <c r="A265">
         <v>263</v>
       </c>
@@ -3509,7 +4919,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16">
       <c r="A266">
         <v>264</v>
       </c>
@@ -3517,7 +4927,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16">
       <c r="A267">
         <v>265</v>
       </c>
@@ -3525,7 +4935,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="16">
       <c r="A268">
         <v>266</v>
       </c>
@@ -3533,7 +4943,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16">
       <c r="A269">
         <v>267</v>
       </c>
@@ -3541,7 +4951,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="16">
       <c r="A270">
         <v>268</v>
       </c>
@@ -3549,7 +4959,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="16">
       <c r="A271">
         <v>269</v>
       </c>
@@ -3557,7 +4967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="16">
       <c r="A272">
         <v>270</v>
       </c>
@@ -3565,7 +4975,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16">
       <c r="A273">
         <v>271</v>
       </c>
@@ -3573,7 +4983,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="16">
       <c r="A274">
         <v>272</v>
       </c>
@@ -3581,7 +4991,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="16">
       <c r="A275">
         <v>273</v>
       </c>
@@ -3589,7 +4999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="16">
       <c r="A276">
         <v>274</v>
       </c>
@@ -3597,7 +5007,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="16">
       <c r="A277">
         <v>275</v>
       </c>
@@ -3605,7 +5015,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="16">
       <c r="A278">
         <v>276</v>
       </c>
@@ -3613,7 +5023,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="16">
       <c r="A279">
         <v>277</v>
       </c>
@@ -3621,7 +5031,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="16">
       <c r="A280">
         <v>278</v>
       </c>
@@ -3629,7 +5039,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16">
       <c r="A281">
         <v>279</v>
       </c>
@@ -3637,7 +5047,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="16">
       <c r="A282">
         <v>280</v>
       </c>
@@ -3645,7 +5055,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="16">
       <c r="A283">
         <v>281</v>
       </c>
@@ -3653,7 +5063,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="16">
       <c r="A284">
         <v>282</v>
       </c>
@@ -3661,7 +5071,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="16">
       <c r="A285">
         <v>283</v>
       </c>
@@ -3669,7 +5079,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="16">
       <c r="A286">
         <v>284</v>
       </c>
@@ -3677,7 +5087,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="16">
       <c r="A287">
         <v>285</v>
       </c>
@@ -3685,7 +5095,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="16">
       <c r="A288">
         <v>286</v>
       </c>
@@ -3693,7 +5103,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16">
       <c r="A289">
         <v>287</v>
       </c>
@@ -3701,7 +5111,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="16">
       <c r="A290">
         <v>288</v>
       </c>
@@ -3709,7 +5119,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="16">
       <c r="A291">
         <v>289</v>
       </c>
@@ -3717,7 +5127,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="16">
       <c r="A292">
         <v>290</v>
       </c>
@@ -3725,7 +5135,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16">
       <c r="A293">
         <v>291</v>
       </c>
@@ -3733,7 +5143,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="16">
       <c r="A294">
         <v>292</v>
       </c>
@@ -3741,7 +5151,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="16">
       <c r="A295">
         <v>293</v>
       </c>
@@ -3749,7 +5159,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="16">
       <c r="A296">
         <v>294</v>
       </c>
@@ -3757,7 +5167,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="16">
       <c r="A297">
         <v>295</v>
       </c>
@@ -3765,7 +5175,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="16">
       <c r="A298">
         <v>296</v>
       </c>
@@ -3773,7 +5183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="16">
       <c r="A299">
         <v>297</v>
       </c>
@@ -3781,7 +5191,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="16">
       <c r="A300">
         <v>298</v>
       </c>
@@ -3789,7 +5199,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="16">
       <c r="A301">
         <v>299</v>
       </c>
@@ -3797,7 +5207,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="16">
       <c r="A302">
         <v>300</v>
       </c>
@@ -3805,7 +5215,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="16">
       <c r="A303">
         <v>301</v>
       </c>
@@ -3813,7 +5223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" ht="16">
       <c r="A304">
         <v>302</v>
       </c>
@@ -3821,7 +5231,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" ht="16">
       <c r="A305">
         <v>303</v>
       </c>
@@ -3829,7 +5239,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" ht="16">
       <c r="A306">
         <v>304</v>
       </c>
@@ -3837,7 +5247,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" ht="16">
       <c r="A307">
         <v>305</v>
       </c>
@@ -3845,7 +5255,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="16">
       <c r="A308">
         <v>306</v>
       </c>
@@ -3853,7 +5263,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" ht="16">
       <c r="A309">
         <v>307</v>
       </c>
@@ -3861,7 +5271,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" ht="16">
       <c r="A310">
         <v>308</v>
       </c>
@@ -3869,7 +5279,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="16">
       <c r="A311">
         <v>309</v>
       </c>
@@ -3877,7 +5287,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" ht="16">
       <c r="A312">
         <v>310</v>
       </c>
@@ -3885,7 +5295,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" ht="16">
       <c r="A313">
         <v>311</v>
       </c>
@@ -3893,7 +5303,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" ht="16">
       <c r="A314">
         <v>312</v>
       </c>
@@ -3901,7 +5311,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" ht="16">
       <c r="A315">
         <v>313</v>
       </c>
@@ -3909,7 +5319,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="16">
       <c r="A316">
         <v>314</v>
       </c>
@@ -3917,7 +5327,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" ht="16">
       <c r="A317">
         <v>315</v>
       </c>
@@ -3925,7 +5335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" ht="16">
       <c r="A318">
         <v>316</v>
       </c>
@@ -3933,7 +5343,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" ht="16">
       <c r="A319">
         <v>317</v>
       </c>
@@ -3941,7 +5351,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" ht="16">
       <c r="A320">
         <v>318</v>
       </c>
@@ -3949,7 +5359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" ht="16">
       <c r="A321">
         <v>319</v>
       </c>
@@ -3957,7 +5367,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" ht="16">
       <c r="A322">
         <v>320</v>
       </c>
@@ -3965,7 +5375,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" ht="16">
       <c r="A323">
         <v>321</v>
       </c>
@@ -3973,7 +5383,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="16">
       <c r="A324">
         <v>322</v>
       </c>
@@ -3981,7 +5391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" ht="16">
       <c r="A325">
         <v>323</v>
       </c>
@@ -3989,7 +5399,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" ht="16">
       <c r="A326">
         <v>324</v>
       </c>
@@ -3997,7 +5407,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" ht="16">
       <c r="A327">
         <v>325</v>
       </c>
@@ -4005,7 +5415,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" ht="16">
       <c r="A328">
         <v>326</v>
       </c>
@@ -4013,7 +5423,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" ht="16">
       <c r="A329">
         <v>327</v>
       </c>
@@ -4021,13 +5431,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" ht="16">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" ht="16">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="16">
       <c r="B332" s="1"/>
     </row>
   </sheetData>
@@ -4035,4 +5445,3642 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EC476A-EE3F-AC45-9216-D93C91070897}">
+  <dimension ref="A1:F341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="108" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="16">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="16">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="16">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="20">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="9" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="20">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="16">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="16">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="16">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="16">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="20">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="20">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="18">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="16">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="16">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="16">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="16">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="16">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="16">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="16">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="16">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="16">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" ht="16">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="16">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="16">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="16">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="16">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="16">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="16">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="16">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="16">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="16">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="16">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" ht="16">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="16">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" ht="16">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" ht="16">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" ht="16">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" ht="16">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" ht="16">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" ht="16">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" ht="16">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" ht="16">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" ht="16">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" ht="16">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" ht="16">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" ht="16">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" ht="16">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" ht="16">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" ht="16">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" ht="16">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" ht="16">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" ht="16">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" ht="16">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" ht="16">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" ht="16">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" ht="16">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" ht="16">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" ht="16">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="16">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" ht="16">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6" ht="16">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6" ht="16">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" ht="16">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" ht="16">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" ht="16">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" ht="16">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" ht="16">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" ht="16">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" ht="16">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" ht="16">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" ht="16">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" ht="16">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" ht="16">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6" ht="16">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6" ht="16">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" ht="16">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" ht="16">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" ht="16">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" ht="16">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" ht="16">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" ht="16">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" ht="16">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" ht="16">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" ht="16">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" ht="16">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" ht="16">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" ht="16">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" ht="16">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" ht="16">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" ht="16">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" ht="16">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" ht="16">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" ht="16">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" ht="16">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" ht="16">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" ht="16">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" ht="16">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" ht="16">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" ht="16">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+    </row>
+    <row r="165" spans="1:6" ht="16">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+    </row>
+    <row r="166" spans="1:6" ht="16">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" ht="16">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6" ht="16">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6" ht="16">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6" ht="16">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+    </row>
+    <row r="171" spans="1:6" ht="16">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6" ht="16">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" ht="16">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" ht="16">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6" ht="16">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" ht="16">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6" ht="16">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" ht="16">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6" ht="16">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6" ht="16">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6" ht="16">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6" ht="16">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="1:6" ht="16">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6" ht="16">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="16">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6" ht="16">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6" ht="16">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6" ht="16">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" ht="16">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6" ht="16">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" ht="16">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:6" ht="16">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6" ht="16">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6" ht="16">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" ht="16">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:6" ht="16">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" ht="16">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" ht="16">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" ht="16">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" ht="16">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="16">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6" ht="16">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" ht="16">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6" ht="16">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:6" ht="16">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6" ht="16">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6" ht="16">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6" ht="16">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:6" ht="16">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+    </row>
+    <row r="210" spans="1:6" ht="16">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+    </row>
+    <row r="211" spans="1:6" ht="16">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:6" ht="16">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+    </row>
+    <row r="213" spans="1:6" ht="16">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+    </row>
+    <row r="214" spans="1:6" ht="16">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+    </row>
+    <row r="215" spans="1:6" ht="16">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+    </row>
+    <row r="216" spans="1:6" ht="16">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+    </row>
+    <row r="217" spans="1:6" ht="16">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+    </row>
+    <row r="218" spans="1:6" ht="16">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+    </row>
+    <row r="219" spans="1:6" ht="16">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+    </row>
+    <row r="220" spans="1:6" ht="16">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" ht="16">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222" spans="1:6" ht="16">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223" spans="1:6" ht="16">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="1:6" ht="16">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+    </row>
+    <row r="225" spans="1:6" ht="16">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="16">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="16">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="1:6" ht="16">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+    </row>
+    <row r="229" spans="1:6" ht="16">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+    </row>
+    <row r="230" spans="1:6" ht="16">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+    </row>
+    <row r="231" spans="1:6" ht="16">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+    </row>
+    <row r="232" spans="1:6" ht="16">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+    </row>
+    <row r="233" spans="1:6" ht="16">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+    </row>
+    <row r="234" spans="1:6" ht="16">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="1:6" ht="16">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+    </row>
+    <row r="236" spans="1:6" ht="16">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+    </row>
+    <row r="237" spans="1:6" ht="16">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+    </row>
+    <row r="238" spans="1:6" ht="16">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+    </row>
+    <row r="239" spans="1:6" ht="16">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240" spans="1:6" ht="16">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241" spans="1:6" ht="16">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
+    </row>
+    <row r="242" spans="1:6" ht="16">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
+    </row>
+    <row r="243" spans="1:6" ht="16">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
+    </row>
+    <row r="244" spans="1:6" ht="16">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
+    </row>
+    <row r="245" spans="1:6" ht="16">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
+    </row>
+    <row r="246" spans="1:6" ht="16">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
+    </row>
+    <row r="247" spans="1:6" ht="16">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
+    </row>
+    <row r="248" spans="1:6" ht="16">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
+    </row>
+    <row r="249" spans="1:6" ht="16">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
+    </row>
+    <row r="250" spans="1:6" ht="16">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
+    </row>
+    <row r="251" spans="1:6" ht="16">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
+    </row>
+    <row r="252" spans="1:6" ht="16">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+    </row>
+    <row r="253" spans="1:6" ht="16">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+    </row>
+    <row r="254" spans="1:6" ht="16">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+    </row>
+    <row r="255" spans="1:6" ht="16">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
+    </row>
+    <row r="256" spans="1:6" ht="16">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
+    </row>
+    <row r="257" spans="1:6" ht="16">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
+    </row>
+    <row r="258" spans="1:6" ht="16">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
+    </row>
+    <row r="259" spans="1:6" ht="16">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
+    </row>
+    <row r="260" spans="1:6" ht="16">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="D260" s="4"/>
+      <c r="E260" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F260" s="4"/>
+    </row>
+    <row r="261" spans="1:6" ht="16">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
+    </row>
+    <row r="262" spans="1:6" ht="16">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
+    </row>
+    <row r="263" spans="1:6" ht="16">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F263" s="4"/>
+    </row>
+    <row r="264" spans="1:6" ht="16">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
+    </row>
+    <row r="265" spans="1:6" ht="16">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F265" s="4"/>
+    </row>
+    <row r="266" spans="1:6" ht="16">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
+    </row>
+    <row r="267" spans="1:6" ht="16">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
+    </row>
+    <row r="268" spans="1:6" ht="16">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
+    </row>
+    <row r="269" spans="1:6" ht="16">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
+    </row>
+    <row r="270" spans="1:6" ht="16">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
+    </row>
+    <row r="271" spans="1:6" ht="16">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D271" s="4"/>
+      <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
+    </row>
+    <row r="272" spans="1:6" ht="16">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
+    </row>
+    <row r="273" spans="1:6" ht="16">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+    </row>
+    <row r="274" spans="1:6" ht="16">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+    </row>
+    <row r="275" spans="1:6" ht="16">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+    </row>
+    <row r="276" spans="1:6" ht="16">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F276" s="4"/>
+    </row>
+    <row r="277" spans="1:6" ht="16">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+    </row>
+    <row r="278" spans="1:6" ht="16">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F278" s="4"/>
+    </row>
+    <row r="279" spans="1:6" ht="16">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
+    </row>
+    <row r="280" spans="1:6" ht="16">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D280" s="4"/>
+      <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
+    </row>
+    <row r="281" spans="1:6" ht="16">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D281" s="4"/>
+      <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
+    </row>
+    <row r="282" spans="1:6" ht="16">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
+    </row>
+    <row r="283" spans="1:6" ht="16">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
+    </row>
+    <row r="284" spans="1:6" ht="16">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
+    </row>
+    <row r="285" spans="1:6" ht="16">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
+    </row>
+    <row r="286" spans="1:6" ht="16">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
+    </row>
+    <row r="287" spans="1:6" ht="16">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
+    </row>
+    <row r="288" spans="1:6" ht="16">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
+    </row>
+    <row r="289" spans="1:6" ht="16">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="290" spans="1:6" ht="16">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D290" s="4"/>
+      <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
+    </row>
+    <row r="291" spans="1:6" ht="16">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
+    </row>
+    <row r="292" spans="1:6" ht="16">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D292" s="4"/>
+      <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
+    </row>
+    <row r="293" spans="1:6" ht="16">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
+    </row>
+    <row r="294" spans="1:6" ht="16">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D294" s="4"/>
+      <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
+    </row>
+    <row r="295" spans="1:6" ht="16">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
+    </row>
+    <row r="296" spans="1:6" ht="16">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D296" s="4"/>
+      <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
+    </row>
+    <row r="297" spans="1:6" ht="16">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D297" s="4"/>
+      <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
+    </row>
+    <row r="298" spans="1:6" ht="16">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D298" s="4"/>
+      <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
+    </row>
+    <row r="299" spans="1:6" ht="16">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
+    </row>
+    <row r="300" spans="1:6" ht="16">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D300" s="4"/>
+      <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
+    </row>
+    <row r="301" spans="1:6" ht="16">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D301" s="4"/>
+      <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
+    </row>
+    <row r="302" spans="1:6" ht="16">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
+    </row>
+    <row r="303" spans="1:6" ht="16">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
+    </row>
+    <row r="304" spans="1:6" ht="16">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D304" s="4"/>
+      <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
+    </row>
+    <row r="305" spans="1:6" ht="16">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D305" s="4"/>
+      <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
+    </row>
+    <row r="306" spans="1:6" ht="16">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
+    </row>
+    <row r="307" spans="1:6" ht="16">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
+    </row>
+    <row r="308" spans="1:6" ht="16">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
+    </row>
+    <row r="309" spans="1:6" ht="16">
+      <c r="A309" s="4"/>
+      <c r="B309" s="4"/>
+      <c r="C309" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
+    </row>
+    <row r="310" spans="1:6" ht="16">
+      <c r="A310" s="4"/>
+      <c r="B310" s="4"/>
+      <c r="C310" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
+    </row>
+    <row r="311" spans="1:6" ht="16">
+      <c r="A311" s="4"/>
+      <c r="B311" s="4"/>
+      <c r="C311" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
+    </row>
+    <row r="312" spans="1:6" ht="16">
+      <c r="A312" s="4"/>
+      <c r="B312" s="4"/>
+      <c r="C312" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
+    </row>
+    <row r="313" spans="1:6" ht="16">
+      <c r="A313" s="4"/>
+      <c r="B313" s="4"/>
+      <c r="C313" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
+    </row>
+    <row r="314" spans="1:6" ht="16">
+      <c r="A314" s="4"/>
+      <c r="B314" s="4"/>
+      <c r="C314" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
+    </row>
+    <row r="315" spans="1:6" ht="16">
+      <c r="A315" s="4"/>
+      <c r="B315" s="4"/>
+      <c r="C315" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
+    </row>
+    <row r="316" spans="1:6" ht="16">
+      <c r="A316" s="4"/>
+      <c r="B316" s="4"/>
+      <c r="C316" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
+    </row>
+    <row r="317" spans="1:6" ht="16">
+      <c r="A317" s="4"/>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D317" s="4"/>
+      <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
+    </row>
+    <row r="318" spans="1:6" ht="16">
+      <c r="A318" s="4"/>
+      <c r="B318" s="4"/>
+      <c r="C318" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
+    </row>
+    <row r="319" spans="1:6" ht="16">
+      <c r="A319" s="4"/>
+      <c r="B319" s="4"/>
+      <c r="C319" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
+    </row>
+    <row r="320" spans="1:6" ht="16">
+      <c r="A320" s="4"/>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
+    </row>
+    <row r="321" spans="1:6" ht="16">
+      <c r="A321" s="4"/>
+      <c r="B321" s="4"/>
+      <c r="C321" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
+    </row>
+    <row r="322" spans="1:6" ht="16">
+      <c r="A322" s="4"/>
+      <c r="B322" s="4"/>
+      <c r="C322" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
+    </row>
+    <row r="323" spans="1:6" ht="16">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="1:6" ht="16">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="1:6" ht="16">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="1:6" ht="16">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="1:6" ht="16">
+      <c r="A327" s="4"/>
+      <c r="B327" s="4"/>
+      <c r="C327" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="1:6" ht="16">
+      <c r="A328" s="4"/>
+      <c r="B328" s="4"/>
+      <c r="C328" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="1:6" ht="16">
+      <c r="A329" s="4"/>
+      <c r="B329" s="4"/>
+      <c r="C329" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="1:6" ht="16">
+      <c r="A330" s="4"/>
+      <c r="B330" s="4"/>
+      <c r="C330" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="1:6" ht="16">
+      <c r="A331" s="4"/>
+      <c r="B331" s="4"/>
+      <c r="C331" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="1:6" ht="16">
+      <c r="A332" s="4"/>
+      <c r="B332" s="4"/>
+      <c r="C332" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="1:6" ht="16">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D333" s="6"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="1:6" ht="16">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="D334" s="6"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="1:6" ht="16">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="1:6" ht="16">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="1:6" ht="16">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" spans="1:6" ht="16">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D338" s="4"/>
+      <c r="E338" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" spans="1:6" ht="16">
+      <c r="A339" s="4"/>
+      <c r="B339" s="4"/>
+      <c r="C339" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D339" s="4"/>
+      <c r="E339" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" spans="1:6" ht="16">
+      <c r="A340" s="4"/>
+      <c r="B340" s="4"/>
+      <c r="C340" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" spans="1:6" ht="16">
+      <c r="C341" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G453" xr:uid="{25EC476A-EE3F-AC45-9216-D93C91070897}"/>
+  <hyperlinks>
+    <hyperlink ref="C333" r:id="rId1" display="https://www.openthesaurus.de/synonyme/Bergrutsch" xr:uid="{49B3FFFD-717A-AC49-ADF4-DE7659651ADA}"/>
+    <hyperlink ref="C334" r:id="rId2" display="https://www.openthesaurus.de/synonyme/Erdsto%C3%9F" xr:uid="{D3D373BB-9DFB-F640-9AEC-E7A08F2B05EF}"/>
+    <hyperlink ref="E338" r:id="rId3" display="https://de.wikipedia.org/wiki/Karfreitagsbeben_1964" xr:uid="{CA41C523-3324-1140-BC90-496BF2161509}"/>
+    <hyperlink ref="E339" r:id="rId4" tooltip="Seebeben · unterseeisches Erdbeben" display="https://www.openthesaurus.de/synonyme/edit/28473" xr:uid="{4864040B-7163-1E4C-A5D2-FEEEEAED6F06}"/>
+    <hyperlink ref="F44" r:id="rId5" display="https://www.openthesaurus.de/synonyme/Seismograf" xr:uid="{D13FB4B8-A7CE-0541-A9E6-F4B5F8DCE44E}"/>
+    <hyperlink ref="F73" r:id="rId6" display="https://www.openthesaurus.de/synonyme/Vulkanph%C3%A4nomen" xr:uid="{6C208FFB-C515-984A-A9A9-E78E238F2EFA}"/>
+    <hyperlink ref="E260" r:id="rId7" display="https://www.openthesaurus.de/synonyme/Schlaflosigkeit" xr:uid="{7D944EA3-E3E3-A94F-8EBC-57600CA87805}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Organisatorisch/Konzepte.xlsx
+++ b/Organisatorisch/Konzepte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateryna_hamii/Bachelorarbeit_v2_fromGit/Organisatorisch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49917652-DE2F-5A42-BC92-BC5DAC5D06D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115D7E9-7C80-B344-A04D-FA6B60D1D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="500" windowWidth="17780" windowHeight="19760" activeTab="1" xr2:uid="{77604E74-32CD-4057-AB40-0BC08FC0D6A8}"/>
+    <workbookView xWindow="140" yWindow="820" windowWidth="17780" windowHeight="19760" activeTab="1" xr2:uid="{77604E74-32CD-4057-AB40-0BC08FC0D6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -5451,8 +5451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EC476A-EE3F-AC45-9216-D93C91070897}">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="108" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Organisatorisch/Konzepte.xlsx
+++ b/Organisatorisch/Konzepte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateryna_hamii/Bachelorarbeit_v2_fromGit/Organisatorisch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115D7E9-7C80-B344-A04D-FA6B60D1D507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0242C02E-407A-B341-8475-0415AF377490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="820" windowWidth="17780" windowHeight="19760" activeTab="1" xr2:uid="{77604E74-32CD-4057-AB40-0BC08FC0D6A8}"/>
   </bookViews>
